--- a/Excel/CycleConfig.xlsx
+++ b/Excel/CycleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>double[]</t>
+    <t>long[]</t>
   </si>
   <si>
     <t>2001,2002,2003,2010,2011,38</t>
@@ -1076,7 +1076,7 @@
   <dimension ref="C3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/Excel/CycleConfig.xlsx
+++ b/Excel/CycleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -53,34 +53,13 @@
     <t>long[]</t>
   </si>
   <si>
-    <t>2001,2002,2003,2010,2011,38</t>
+    <t>2001,2002,2003,2004,2005,2006,2010,38</t>
   </si>
   <si>
-    <t>100,100,100,10,10,10</t>
+    <t>300,300,300,300,300,300,30,15</t>
   </si>
   <si>
-    <t>200,200,200,20,20,20</t>
-  </si>
-  <si>
-    <t>300,300,300,30,30,30</t>
-  </si>
-  <si>
-    <t>400,400,400,40,40,40</t>
-  </si>
-  <si>
-    <t>500,500,500,50,50,50</t>
-  </si>
-  <si>
-    <t>600,600,600,60,60,60</t>
-  </si>
-  <si>
-    <t>700,700,700,70,70,70</t>
-  </si>
-  <si>
-    <t>800,800,800,80,80,80</t>
-  </si>
-  <si>
-    <t>900,900,900,90,90,90</t>
+    <t>700,700,700,700,700,700,70,35</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1055,7 @@
   <dimension ref="C3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1085,7 +1064,7 @@
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -1172,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="3:6">
@@ -1186,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:6">
@@ -1200,7 +1179,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="3:6">
@@ -1214,7 +1193,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:6">
@@ -1228,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="3:6">
@@ -1242,7 +1221,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="3:6">
@@ -1256,7 +1235,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CycleConfig.xlsx
+++ b/Excel/CycleConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>700,700,700,700,700,700,70,35</t>
+  </si>
+  <si>
+    <t>1200,1200,1200,1200,1200,1200,120,60</t>
+  </si>
+  <si>
+    <t>1800,1800,1800,1800,1800,1800,180,90</t>
+  </si>
+  <si>
+    <t>2500,2500,2500,2500,2500,2500,250,125</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1064,7 @@
   <dimension ref="C3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1065,7 +1074,7 @@
     <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -1151,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="3:6">
@@ -1165,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="3:6">
@@ -1179,7 +1188,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:6">

--- a/Excel/CycleConfig.xlsx
+++ b/Excel/CycleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>2500,2500,2500,2500,2500,2500,250,125</t>
+  </si>
+  <si>
+    <t>3300,3300,3300,3300,3300,3300,330,165</t>
+  </si>
+  <si>
+    <t>4200,4200,4200,4200,4200,4200,420,210</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1070,7 @@
   <dimension ref="C3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1202,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="3:6">
@@ -1216,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="3:6">

--- a/Excel/CycleConfig.xlsx
+++ b/Excel/CycleConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>4200,4200,4200,4200,4200,4200,420,210</t>
+  </si>
+  <si>
+    <t>5200,5200,5200,5200,5200,5200,520,260</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
   <dimension ref="C3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1236,7 +1239,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:6">

--- a/Excel/CycleConfig.xlsx
+++ b/Excel/CycleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>5200,5200,5200,5200,5200,5200,520,260</t>
+  </si>
+  <si>
+    <t>6300,6300,6300,6300,6300,6300,630,315</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
   <dimension ref="C3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1253,7 +1256,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CycleConfig.xlsx
+++ b/Excel/CycleConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -80,7 +80,10 @@
     <t>5200,5200,5200,5200,5200,5200,520,260</t>
   </si>
   <si>
-    <t>6300,6300,6300,6300,6300,6300,630,315</t>
+    <t>6300,6300,6300,6300,6300,6300,630,310</t>
+  </si>
+  <si>
+    <t>7500,7500,7500,7500,7500,7500,750,360</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1076,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F14"/>
+  <dimension ref="C3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1259,6 +1262,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/CycleConfig.xlsx
+++ b/Excel/CycleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>7500,7500,7500,7500,7500,7500,750,360</t>
+  </si>
+  <si>
+    <t>8800,8800,8800,8800,8800,8800,880,410</t>
+  </si>
+  <si>
+    <t>10200,10200,10200,10200,10200,10200,1020,460</t>
+  </si>
+  <si>
+    <t>11700,11700,11700,11700,11700,11700,1170,510</t>
+  </si>
+  <si>
+    <t>13300,13300,13300,13300,13300,13300,1330,560</t>
+  </si>
+  <si>
+    <t>15000,15000,15000,15000,15000,15000,1500,610</t>
+  </si>
+  <si>
+    <t>15+18</t>
   </si>
 </sst>
 </file>
@@ -1076,20 +1094,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F15"/>
+  <dimension ref="C3:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -1276,6 +1294,79 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>14</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/CycleConfig.xlsx
+++ b/Excel/CycleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -86,19 +86,22 @@
     <t>7500,7500,7500,7500,7500,7500,750,360</t>
   </si>
   <si>
-    <t>8800,8800,8800,8800,8800,8800,880,410</t>
-  </si>
-  <si>
-    <t>10200,10200,10200,10200,10200,10200,1020,460</t>
-  </si>
-  <si>
-    <t>11700,11700,11700,11700,11700,11700,1170,510</t>
-  </si>
-  <si>
-    <t>13300,13300,13300,13300,13300,13300,1330,560</t>
-  </si>
-  <si>
-    <t>15000,15000,15000,15000,15000,15000,1500,610</t>
+    <t>2001,2002,2003,2004,2005,2006,2010,38,110</t>
+  </si>
+  <si>
+    <t>8800,8800,8800,8800,8800,8800,880,410,10</t>
+  </si>
+  <si>
+    <t>10200,10200,10200,10200,10200,10200,1020,460,20</t>
+  </si>
+  <si>
+    <t>11700,11700,11700,11700,11700,11700,1170,510,30</t>
+  </si>
+  <si>
+    <t>13300,13300,13300,13300,13300,13300,1330,560,40</t>
+  </si>
+  <si>
+    <t>15000,15000,15000,15000,15000,15000,1500,610,50</t>
   </si>
   <si>
     <t>15+18</t>
@@ -1097,7 +1100,7 @@
   <dimension ref="C3:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1106,7 +1109,7 @@
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="41.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -1302,10 +1305,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -1316,10 +1319,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -1330,10 +1333,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -1344,10 +1347,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="3:7">
@@ -1358,13 +1361,13 @@
         <v>15</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
